--- a/FootballManager/TeamImportFM.xlsx
+++ b/FootballManager/TeamImportFM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torgeir Krohn\PycharmProjects\untitled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08649743-6739-4718-9382-F675E299F60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67262A2-862B-4C0A-981A-34099784F364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="2388" windowWidth="22728" windowHeight="9996" xr2:uid="{66A093BE-3DA6-45E2-B41D-3F50064BA1EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66A093BE-3DA6-45E2-B41D-3F50064BA1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Liverpool</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Man Utd</t>
   </si>
   <si>
-    <t>Hudderfield</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
@@ -72,6 +69,78 @@
   </si>
   <si>
     <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>West Bromwich</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Sheff Wed</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Wolverhampton</t>
+  </si>
+  <si>
+    <t>Milwall</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
   </si>
 </sst>
 </file>
@@ -423,80 +492,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71B7CA3-ADD8-4BAD-9B31-D2B0CA1ADA80}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
